--- a/여수밤바다/2015 여름수련회 생활순(최신).xlsx
+++ b/여수밤바다/2015 여름수련회 생활순(최신).xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="24240" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="-360" yWindow="-165" windowWidth="21060" windowHeight="7515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="명단" sheetId="2" r:id="rId1"/>
-    <sheet name="생활순 편성표 (수정)" sheetId="6" r:id="rId2"/>
-    <sheet name="생활순 편성표" sheetId="3" r:id="rId3"/>
-    <sheet name="버스" sheetId="4" r:id="rId4"/>
+    <sheet name="생활순 편성표" sheetId="3" r:id="rId2"/>
+    <sheet name="생활순 편성표 (수정)" sheetId="6" r:id="rId3"/>
+    <sheet name="버스" sheetId="7" r:id="rId4"/>
     <sheet name="방배정(미정)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">명단!$A$8:$C$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">버스!$M$4:$Q$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">버스!$M$4:$Q$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="483">
   <si>
     <t>이루리(15)</t>
   </si>
@@ -1053,335 +1053,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>상행</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>하행</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지환SJ(13)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>박예주SJ(13)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>김희진(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진SJ(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>타 버스 이용 현황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부분참 현황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이준이SJ(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안형빈(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>반송현(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성모SJ(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주영(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 7순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>성남</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박유정(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>형제 6순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 1순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서명원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유승환(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조민우SJ(14)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 3순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>송배근SJ(11)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 2순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김다운</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박소연SJ(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>심은경(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 5순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신촌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 4순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주선희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>의정부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김혜정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진규SJ(09)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>형제 4순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>목포</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 8순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이루리(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박예찬(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주형SJ(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전은지(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현준(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활순 별로 배치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김혜정(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김창기(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태연SJ(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 ~ 4순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1호차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한주희(13)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>강준규(12)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 ~ 8순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2호차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>천은택SJ(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조예은SJ(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="3"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조현우</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="3"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SJ(14)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>강하영SJ(13)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>오다희(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신초현SJ(12)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정초롱(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>황영주(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤희선(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박새영(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>형제 1-4순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 1-4순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>간사님</t>
-  </si>
-  <si>
-    <t>형제 5-8순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자매 5-8순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상행 현황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하행행 현황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>윤석근</t>
@@ -1392,103 +1064,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>장채은(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도착</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조현우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조예은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>형제 8순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>형제 5순</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>출발</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[부]김혜정(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활순장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>권희준</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이현주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조예은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박예주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강하영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>천은택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강성웅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최한빛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조현우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장채은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강하영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>손주현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조민우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최한빛</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1818,10 +1394,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>박소연SJ(14)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>김태연SJ(13)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1916,19 +1488,632 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>서울 성남지부 오렌지동 방편성표</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 생활 1순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 생활 2순</t>
+  </si>
+  <si>
+    <t>형제 생활 3순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 생활 4순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 생활 5순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 생활 6순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 생활 7순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 생활 8순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[부]박소연SJ(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 생활 1순</t>
+  </si>
+  <si>
+    <t>자매 생활 3순</t>
+  </si>
+  <si>
+    <t>자매 생활 5순</t>
+  </si>
+  <si>
+    <t>자매 생활 7순</t>
+  </si>
+  <si>
+    <t>자매 생활 2순</t>
+  </si>
+  <si>
+    <t>자매 생활 4순</t>
+  </si>
+  <si>
+    <t>자매 생활 6순</t>
+  </si>
+  <si>
+    <t>자매 생활 8순</t>
+  </si>
+  <si>
+    <t>총단방</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자매 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">형제 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2호차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ~ 8순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하행행 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상행 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 4순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활순 별로 배치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 5-8순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 5-8순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 1-4순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 1-4순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정진호(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>박새영(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진SJ(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고성현(15)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤희선(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>권주영(12)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>목포</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황영주(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현우(11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정초롱(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의정부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신초현SJ(12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강택민SJ(11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오다희(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성민SJ(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>신촌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천은택SJ(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하영SJ(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조현우</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SJ(14)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>조예은SJ(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지우SJ(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이관우(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강준규(12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재중(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>장채은(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최한빛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 6순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태연SJ(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김창기(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜정(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한주희(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 7순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현준(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜린SJ(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노윤영SJ(12)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 2순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주형SJ(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박예찬(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최기석SJ(09)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>서명원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>권희준</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 1순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박태완SJ(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>위아현SJ(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>유은권SJ(12)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤경SJ(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주선희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박예주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 5순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 8순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영경(12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민우SJ(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 3순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강성웅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 5순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이루리(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전대하SJ(11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진규SJ(09)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박소연</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매6순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 8순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지수SJ(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석근(12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장채은</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>심은경(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민SJ(09)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전은지(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공태성(15)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>자매 4순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조예은</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김문지SJ(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현주SJ(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>송배근SJ(11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>최한빛SJ(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유승환(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위아현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박유정(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손주현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천은택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제 4순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주영(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성모SJ(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주선희SJ(11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>하행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활순장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반송현(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안형빈(14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준이SJ(13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분참 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 버스 이용 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오해영SJ(10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김희진(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수빈(12)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>박예주SJ(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>강성웅SJ(14)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>권희준SJ(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지환SJ(13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>하행</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>상행</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="##0&quot;명&quot;"/>
     <numFmt numFmtId="177" formatCode="#0&quot;명&quot;"/>
     <numFmt numFmtId="178" formatCode="#0%"/>
     <numFmt numFmtId="179" formatCode="&quot;합계 :&quot;\ #0&quot;명&quot;"/>
+    <numFmt numFmtId="180" formatCode="#&quot;평&quot;"/>
+    <numFmt numFmtId="181" formatCode="#&quot;호&quot;"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2218,8 +2403,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2357,8 +2566,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2817,6 +3038,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2859,7 +3104,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3281,19 +3526,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3302,29 +3535,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3332,16 +3544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3384,13 +3587,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3414,40 +3611,19 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3468,25 +3644,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="35" fillId="0" borderId="24" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3513,20 +3683,176 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3554,6 +3880,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361497</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="438150"/>
+          <a:ext cx="3628572" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3846,7 +4215,7 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
@@ -3877,31 +4246,31 @@
       <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214" t="s">
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214" t="s">
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="215"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="192"/>
       <c r="P2" s="66" t="s">
         <v>37</v>
       </c>
@@ -5340,7 +5709,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1">
       <c r="A52" s="99" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="B52" s="100"/>
       <c r="C52" s="93"/>
@@ -5358,8 +5727,8 @@
       <c r="O52" s="93"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A53" s="186" t="s">
-        <v>324</v>
+      <c r="A53" s="172" t="s">
+        <v>247</v>
       </c>
       <c r="D53" s="99"/>
       <c r="E53" s="100"/>
@@ -5398,49 +5767,49 @@
       <c r="O55" s="65"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="210" t="s">
+      <c r="A56" s="187" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="211"/>
-      <c r="C56" s="211"/>
-      <c r="D56" s="211"/>
-      <c r="E56" s="211"/>
-      <c r="F56" s="211"/>
-      <c r="G56" s="211"/>
-      <c r="H56" s="211"/>
-      <c r="I56" s="211"/>
-      <c r="J56" s="211"/>
-      <c r="K56" s="211"/>
-      <c r="L56" s="211"/>
-      <c r="M56" s="211"/>
-      <c r="N56" s="211"/>
-      <c r="O56" s="212"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="188"/>
+      <c r="J56" s="188"/>
+      <c r="K56" s="188"/>
+      <c r="L56" s="188"/>
+      <c r="M56" s="188"/>
+      <c r="N56" s="188"/>
+      <c r="O56" s="189"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A57" s="206" t="s">
+      <c r="A57" s="193" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="207"/>
+      <c r="B57" s="194"/>
       <c r="C57" s="114"/>
-      <c r="D57" s="206" t="s">
+      <c r="D57" s="193" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="207"/>
+      <c r="E57" s="194"/>
       <c r="F57" s="115"/>
-      <c r="G57" s="208" t="s">
+      <c r="G57" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="H57" s="207"/>
+      <c r="H57" s="194"/>
       <c r="I57" s="114"/>
-      <c r="J57" s="206" t="s">
+      <c r="J57" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="K57" s="207"/>
+      <c r="K57" s="194"/>
       <c r="L57" s="115"/>
-      <c r="M57" s="209" t="s">
+      <c r="M57" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="N57" s="207"/>
+      <c r="N57" s="194"/>
       <c r="O57" s="115"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1">
@@ -5633,17 +6002,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
     <mergeCell ref="A56:O56"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -5655,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5669,17 +6038,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A1" s="216" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
+      <c r="A1" s="197" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5700,15 +6069,15 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="33" customHeight="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5749,10 +6118,10 @@
         <v>26</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>352</v>
+        <v>162</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -5775,38 +6144,38 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>357</v>
+        <v>167</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>359</v>
+        <v>169</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="60" t="s">
-        <v>362</v>
+        <v>172</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>363</v>
+        <v>173</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -5827,35 +6196,34 @@
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="20" t="s">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>365</v>
+        <v>175</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>366</v>
+        <v>176</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>367</v>
+        <v>177</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>369</v>
+        <v>178</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>370</v>
+        <v>179</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="55" t="s">
-        <v>371</v>
+        <v>180</v>
       </c>
       <c r="L5" s="57">
-        <f>명단!N3</f>
         <v>6</v>
       </c>
       <c r="M5" s="2"/>
@@ -5880,13 +6248,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>372</v>
+        <v>181</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>374</v>
+        <v>183</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>23</v>
@@ -5895,17 +6263,16 @@
         <v>19</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="55" t="s">
-        <v>377</v>
+        <v>187</v>
       </c>
       <c r="L6" s="57">
-        <f>명단!H3</f>
         <v>6</v>
       </c>
       <c r="M6" s="2"/>
@@ -5927,10 +6294,10 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="20" t="s">
-        <v>378</v>
+        <v>188</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>379</v>
+        <v>189</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>22</v>
@@ -5942,20 +6309,19 @@
         <v>20</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="55" t="s">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="L7" s="54">
-        <f>명단!K3</f>
         <v>1</v>
       </c>
       <c r="M7" s="2"/>
@@ -5980,32 +6346,28 @@
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>384</v>
+        <v>193</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>385</v>
+        <v>194</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>386</v>
+        <v>195</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>387</v>
-      </c>
       <c r="H8" s="53" t="s">
-        <v>388</v>
+        <v>197</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>389</v>
+        <v>198</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="52" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="L8" s="51">
-        <f>명단!E3</f>
         <v>26</v>
       </c>
       <c r="M8" s="2"/>
@@ -6027,25 +6389,26 @@
     <row r="9" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="20" t="s">
-        <v>391</v>
+        <v>200</v>
       </c>
       <c r="C9" s="146"/>
       <c r="D9" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>201</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="15" t="s">
-        <v>393</v>
+        <v>203</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="50" t="s">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="L9" s="49">
-        <f>명단!B3</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -6075,11 +6438,11 @@
       <c r="I10" s="11"/>
       <c r="J10" s="2"/>
       <c r="K10" s="47" t="s">
-        <v>395</v>
+        <v>205</v>
       </c>
       <c r="L10" s="46">
         <f>SUM(L5:L9)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -6128,7 +6491,7 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>396</v>
+        <v>206</v>
       </c>
       <c r="B12" s="44">
         <f t="shared" ref="B12:I12" si="0">COUNTIF(B4:B11, "*SJ*")</f>
@@ -6183,7 +6546,7 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>397</v>
+        <v>207</v>
       </c>
       <c r="B13" s="44">
         <f t="shared" ref="B13:I13" si="1">B14-B12</f>
@@ -6203,11 +6566,11 @@
       </c>
       <c r="F13" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="1"/>
@@ -6238,7 +6601,7 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>398</v>
+        <v>208</v>
       </c>
       <c r="B14" s="44">
         <f t="shared" ref="B14:I14" si="2">COUNTA(B4:B11)</f>
@@ -6258,11 +6621,11 @@
       </c>
       <c r="F14" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="44">
         <f t="shared" si="2"/>
@@ -6326,7 +6689,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>399</v>
+        <v>209</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>15</v>
@@ -6335,7 +6698,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>13</v>
@@ -6344,7 +6707,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>401</v>
+        <v>211</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -6370,28 +6733,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>402</v>
+        <v>212</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>403</v>
+        <v>213</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>405</v>
+        <v>215</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>406</v>
+        <v>216</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>407</v>
+        <v>217</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>408</v>
+        <v>218</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>409</v>
+        <v>219</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -6415,10 +6778,10 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>411</v>
+        <v>220</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -6427,7 +6790,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>412</v>
+        <v>222</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>8</v>
@@ -6460,22 +6823,22 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="20" t="s">
-        <v>413</v>
+        <v>223</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>415</v>
+        <v>224</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>225</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>417</v>
+        <v>227</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>418</v>
+        <v>228</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>5</v>
@@ -6505,28 +6868,28 @@
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="20" t="s">
-        <v>419</v>
+        <v>229</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>422</v>
+      <c r="F20" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>423</v>
+        <v>232</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>424</v>
+        <v>233</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -6550,28 +6913,28 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="20" t="s">
-        <v>425</v>
+        <v>234</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>426</v>
+        <v>235</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="F21" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="H21" s="15" t="s">
-        <v>429</v>
+        <v>239</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>430</v>
+        <v>240</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -6595,9 +6958,12 @@
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="G22" s="17" t="s">
-        <v>431</v>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="11"/>
@@ -6675,7 +7041,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>396</v>
+        <v>206</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" ref="B25:I25" si="3">COUNTIF(B17:B24, "*SJ*")</f>
@@ -6683,19 +7049,19 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="3"/>
@@ -6728,7 +7094,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>397</v>
+        <v>241</v>
       </c>
       <c r="B26" s="7">
         <f t="shared" ref="B26:I26" si="4">B27-B25</f>
@@ -6736,19 +7102,19 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="4"/>
@@ -6781,7 +7147,7 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>432</v>
+        <v>242</v>
       </c>
       <c r="B27" s="7">
         <f t="shared" ref="B27:I27" si="5">COUNTA(B17:B24)</f>
@@ -6820,7 +7186,7 @@
         <v>41</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>433</v>
+        <v>243</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -6839,7 +7205,7 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>434</v>
+        <v>244</v>
       </c>
       <c r="B28" s="7">
         <f t="shared" ref="B28:I28" si="6">B14+B27</f>
@@ -6859,11 +7225,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="6"/>
@@ -35096,7 +35462,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35105,7 +35471,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -35118,17 +35484,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A1" s="216" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
+      <c r="A1" s="197" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -35149,15 +35515,15 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="33" customHeight="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -35198,10 +35564,10 @@
         <v>26</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -35224,38 +35590,38 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="60" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -35276,34 +35642,35 @@
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="20" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="55" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L5" s="57">
+        <f>명단!N3</f>
         <v>6</v>
       </c>
       <c r="M5" s="2"/>
@@ -35328,13 +35695,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>23</v>
@@ -35343,16 +35710,17 @@
         <v>19</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="55" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="L6" s="57">
+        <f>명단!H3</f>
         <v>6</v>
       </c>
       <c r="M6" s="2"/>
@@ -35374,10 +35742,10 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="20" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>22</v>
@@ -35389,19 +35757,20 @@
         <v>20</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="55" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="L7" s="54">
+        <f>명단!K3</f>
         <v>1</v>
       </c>
       <c r="M7" s="2"/>
@@ -35426,28 +35795,32 @@
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="G8" s="13" t="s">
+        <v>286</v>
+      </c>
       <c r="H8" s="53" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="52" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="L8" s="51">
+        <f>명단!E3</f>
         <v>26</v>
       </c>
       <c r="M8" s="2"/>
@@ -35469,26 +35842,25 @@
     <row r="9" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="20" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="C9" s="146"/>
       <c r="D9" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>202</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="15" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="50" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="L9" s="49">
-        <v>46</v>
+        <f>명단!B3</f>
+        <v>45</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -35518,11 +35890,11 @@
       <c r="I10" s="11"/>
       <c r="J10" s="2"/>
       <c r="K10" s="47" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="L10" s="46">
         <f>SUM(L5:L9)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -35571,7 +35943,7 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="B12" s="44">
         <f t="shared" ref="B12:I12" si="0">COUNTIF(B4:B11, "*SJ*")</f>
@@ -35626,7 +35998,7 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="B13" s="44">
         <f t="shared" ref="B13:I13" si="1">B14-B12</f>
@@ -35646,11 +36018,11 @@
       </c>
       <c r="F13" s="44">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="1"/>
@@ -35681,7 +36053,7 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="B14" s="44">
         <f t="shared" ref="B14:I14" si="2">COUNTA(B4:B11)</f>
@@ -35701,11 +36073,11 @@
       </c>
       <c r="F14" s="44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="44">
         <f t="shared" si="2"/>
@@ -35769,7 +36141,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>15</v>
@@ -35778,7 +36150,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>13</v>
@@ -35787,7 +36159,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -35813,28 +36185,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>215</v>
+        <v>304</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -35858,10 +36230,10 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="20" t="s">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -35870,7 +36242,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>8</v>
@@ -35903,22 +36275,22 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="20" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>227</v>
+        <v>316</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>228</v>
+        <v>317</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>5</v>
@@ -35948,28 +36320,28 @@
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="20" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>230</v>
+      <c r="F20" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -35993,28 +36365,28 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="20" t="s">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>235</v>
+        <v>324</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>238</v>
+        <v>326</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -36038,12 +36410,9 @@
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
       <c r="G22" s="13" t="s">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="11"/>
@@ -36121,7 +36490,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" ref="B25:I25" si="3">COUNTIF(B17:B24, "*SJ*")</f>
@@ -36129,19 +36498,19 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="3"/>
@@ -36174,7 +36543,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="B26" s="7">
         <f t="shared" ref="B26:I26" si="4">B27-B25</f>
@@ -36182,19 +36551,19 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="4"/>
@@ -36227,7 +36596,7 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="B27" s="7">
         <f t="shared" ref="B27:I27" si="5">COUNTA(B17:B24)</f>
@@ -36266,7 +36635,7 @@
         <v>41</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -36285,7 +36654,7 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="B28" s="7">
         <f t="shared" ref="B28:I28" si="6">B14+B27</f>
@@ -36305,11 +36674,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="6"/>
@@ -64542,7 +64911,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -64550,8 +64919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -64570,167 +64939,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27.75">
-      <c r="A1" s="217" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="A1" s="206" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
       <c r="F1" s="147"/>
-      <c r="G1" s="217" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
+      <c r="G1" s="206" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="148"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" thickBot="1">
       <c r="A2" s="149" t="s">
-        <v>247</v>
+        <v>480</v>
       </c>
       <c r="B2" s="149" t="s">
-        <v>212</v>
+        <v>479</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="149" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
       <c r="E2" s="149" t="s">
-        <v>248</v>
+        <v>477</v>
       </c>
       <c r="G2" s="149" t="s">
-        <v>247</v>
+        <v>480</v>
       </c>
       <c r="H2" s="149" t="s">
-        <v>212</v>
+        <v>479</v>
       </c>
       <c r="I2" s="147"/>
       <c r="J2" s="149" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
       <c r="K2" s="149" t="s">
-        <v>248</v>
+        <v>477</v>
       </c>
       <c r="L2" s="150"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="151" t="s">
-        <v>174</v>
+        <v>476</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="C3" s="147"/>
       <c r="D3" s="151" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="189" t="s">
-        <v>250</v>
+        <v>474</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>1</v>
       </c>
       <c r="G3" s="151" t="s">
-        <v>174</v>
+        <v>476</v>
       </c>
       <c r="H3" s="151" t="s">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="I3" s="147"/>
       <c r="J3" s="151" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" s="151"/>
+        <v>474</v>
+      </c>
+      <c r="K3" s="151" t="s">
+        <v>1</v>
+      </c>
       <c r="L3" s="152"/>
-      <c r="M3" s="219" t="s">
-        <v>251</v>
-      </c>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="220" t="s">
-        <v>252</v>
-      </c>
-      <c r="S3" s="220"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="221"/>
+      <c r="M3" s="215" t="s">
+        <v>473</v>
+      </c>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="216" t="s">
+        <v>472</v>
+      </c>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="217"/>
     </row>
     <row r="4" spans="1:21" ht="17.25" thickBot="1">
       <c r="A4" s="151" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="151" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="C4" s="147"/>
       <c r="D4" s="151" t="s">
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="E4" s="151" t="s">
-        <v>255</v>
+        <v>469</v>
       </c>
       <c r="G4" s="151" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="151" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="I4" s="147"/>
       <c r="J4" s="151" t="s">
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="K4" s="151" t="s">
-        <v>255</v>
+        <v>469</v>
       </c>
       <c r="L4" s="152"/>
-      <c r="M4" s="153" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="154" t="s">
-        <v>333</v>
-      </c>
-      <c r="O4" s="154" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" s="154" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q4" s="155" t="s">
-        <v>259</v>
-      </c>
-      <c r="R4" s="154" t="s">
-        <v>256</v>
-      </c>
-      <c r="S4" s="154" t="s">
-        <v>257</v>
-      </c>
-      <c r="T4" s="154" t="s">
-        <v>258</v>
-      </c>
-      <c r="U4" s="155" t="s">
-        <v>259</v>
+      <c r="M4" s="218" t="s">
+        <v>467</v>
+      </c>
+      <c r="N4" s="219" t="s">
+        <v>468</v>
+      </c>
+      <c r="O4" s="219" t="s">
+        <v>466</v>
+      </c>
+      <c r="P4" s="219" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q4" s="220" t="s">
+        <v>464</v>
+      </c>
+      <c r="R4" s="219" t="s">
+        <v>467</v>
+      </c>
+      <c r="S4" s="219" t="s">
+        <v>466</v>
+      </c>
+      <c r="T4" s="219" t="s">
+        <v>465</v>
+      </c>
+      <c r="U4" s="220" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25" thickTop="1">
       <c r="A5" s="151" t="s">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="C5" s="147"/>
       <c r="D5" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="189" t="s">
-        <v>227</v>
+      <c r="E5" s="174" t="s">
+        <v>463</v>
       </c>
       <c r="G5" s="151" t="s">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="H5" s="151" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="I5" s="147"/>
       <c r="J5" s="151" t="s">
@@ -64738,32 +65109,32 @@
       </c>
       <c r="K5" s="151"/>
       <c r="L5" s="152"/>
-      <c r="M5" s="199" t="s">
-        <v>268</v>
-      </c>
-      <c r="N5" s="193" t="s">
-        <v>334</v>
-      </c>
-      <c r="O5" s="161" t="s">
-        <v>269</v>
-      </c>
-      <c r="P5" s="161" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q5" s="162" t="s">
-        <v>265</v>
-      </c>
-      <c r="R5" s="161" t="s">
-        <v>268</v>
-      </c>
-      <c r="S5" s="160" t="s">
-        <v>269</v>
-      </c>
-      <c r="T5" s="161" t="s">
-        <v>270</v>
-      </c>
-      <c r="U5" s="162" t="s">
-        <v>265</v>
+      <c r="M5" s="234" t="s">
+        <v>460</v>
+      </c>
+      <c r="N5" s="185" t="s">
+        <v>459</v>
+      </c>
+      <c r="O5" s="186" t="s">
+        <v>458</v>
+      </c>
+      <c r="P5" s="235" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q5" s="236" t="s">
+        <v>372</v>
+      </c>
+      <c r="R5" s="209" t="s">
+        <v>415</v>
+      </c>
+      <c r="S5" s="237" t="s">
+        <v>413</v>
+      </c>
+      <c r="T5" s="209" t="s">
+        <v>406</v>
+      </c>
+      <c r="U5" s="222" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -64776,9 +65147,9 @@
         <v>17</v>
       </c>
       <c r="E6" s="151" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="159"/>
+        <v>457</v>
+      </c>
+      <c r="F6" s="155"/>
       <c r="G6" s="151" t="s">
         <v>18</v>
       </c>
@@ -64788,662 +65159,696 @@
         <v>17</v>
       </c>
       <c r="K6" s="151" t="s">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="L6" s="152"/>
-      <c r="M6" s="200" t="s">
-        <v>275</v>
-      </c>
-      <c r="N6" s="194" t="s">
-        <v>335</v>
-      </c>
-      <c r="O6" s="165" t="s">
-        <v>276</v>
-      </c>
-      <c r="P6" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q6" s="167" t="s">
-        <v>265</v>
-      </c>
-      <c r="R6" s="156" t="s">
-        <v>273</v>
-      </c>
-      <c r="S6" s="157" t="s">
+      <c r="M6" s="226" t="s">
+        <v>428</v>
+      </c>
+      <c r="N6" s="214" t="s">
+        <v>456</v>
+      </c>
+      <c r="O6" s="239" t="s">
+        <v>427</v>
+      </c>
+      <c r="P6" s="227" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q6" s="228" t="s">
+        <v>381</v>
+      </c>
+      <c r="R6" s="213" t="s">
+        <v>428</v>
+      </c>
+      <c r="S6" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="U6" s="158" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="151" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="151"/>
+      <c r="T6" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="U6" s="225" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.25" thickBot="1">
+      <c r="A7" s="260" t="s">
+        <v>455</v>
+      </c>
+      <c r="B7" s="260"/>
       <c r="C7" s="147"/>
-      <c r="D7" s="189" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="151" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" s="151"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="260" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" s="260"/>
       <c r="I7" s="147"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="260"/>
       <c r="L7" s="152"/>
-      <c r="M7" s="201" t="s">
-        <v>282</v>
-      </c>
-      <c r="N7" s="195" t="s">
-        <v>336</v>
-      </c>
-      <c r="O7" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="P7" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="158" t="s">
-        <v>290</v>
-      </c>
-      <c r="R7" s="165" t="s">
-        <v>275</v>
-      </c>
-      <c r="S7" s="166" t="s">
+      <c r="M7" s="230" t="s">
+        <v>422</v>
+      </c>
+      <c r="N7" s="180" t="s">
+        <v>421</v>
+      </c>
+      <c r="O7" s="213" t="s">
+        <v>454</v>
+      </c>
+      <c r="P7" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q7" s="225" t="s">
+        <v>381</v>
+      </c>
+      <c r="R7" s="210" t="s">
+        <v>409</v>
+      </c>
+      <c r="S7" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="U7" s="167" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="164" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="164" t="s">
-        <v>213</v>
+      <c r="T7" s="210" t="s">
+        <v>406</v>
+      </c>
+      <c r="U7" s="224" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" thickTop="1">
+      <c r="A8" s="149" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>451</v>
       </c>
       <c r="C8" s="147"/>
-      <c r="D8" s="188" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="164" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="164" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="164" t="s">
-        <v>213</v>
+      <c r="D8" s="258" t="s">
+        <v>453</v>
+      </c>
+      <c r="E8" s="149" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="149" t="s">
+        <v>451</v>
       </c>
       <c r="I8" s="147"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164" t="s">
-        <v>217</v>
+      <c r="J8" s="262"/>
+      <c r="K8" s="149" t="s">
+        <v>450</v>
       </c>
       <c r="L8" s="150"/>
-      <c r="M8" s="202" t="s">
-        <v>279</v>
-      </c>
-      <c r="N8" s="196" t="s">
-        <v>337</v>
-      </c>
-      <c r="O8" s="156" t="s">
-        <v>280</v>
-      </c>
-      <c r="P8" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="R8" s="156" t="s">
-        <v>282</v>
-      </c>
-      <c r="S8" s="157" t="s">
+      <c r="M8" s="229" t="s">
+        <v>448</v>
+      </c>
+      <c r="N8" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="O8" s="212" t="s">
+        <v>449</v>
+      </c>
+      <c r="P8" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q8" s="225" t="s">
+        <v>368</v>
+      </c>
+      <c r="R8" s="213" t="s">
+        <v>448</v>
+      </c>
+      <c r="S8" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="156" t="s">
-        <v>270</v>
-      </c>
-      <c r="U8" s="158" t="s">
-        <v>264</v>
+      <c r="T8" s="213" t="s">
+        <v>406</v>
+      </c>
+      <c r="U8" s="225" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="151" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
       <c r="B9" s="151" t="s">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="C9" s="147"/>
       <c r="D9" s="151" t="s">
-        <v>184</v>
+        <v>445</v>
       </c>
       <c r="E9" s="151" t="s">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="G9" s="151" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
       <c r="H9" s="151" t="s">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="I9" s="147"/>
       <c r="J9" s="151" t="s">
-        <v>184</v>
+        <v>445</v>
       </c>
       <c r="K9" s="151" t="s">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="L9" s="152"/>
-      <c r="M9" s="202" t="s">
-        <v>279</v>
-      </c>
-      <c r="N9" s="196" t="s">
-        <v>337</v>
-      </c>
-      <c r="O9" s="156" t="s">
-        <v>283</v>
-      </c>
-      <c r="P9" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q9" s="158" t="s">
-        <v>284</v>
-      </c>
-      <c r="R9" s="156" t="s">
-        <v>273</v>
-      </c>
-      <c r="S9" s="157" t="s">
-        <v>285</v>
-      </c>
-      <c r="T9" s="168" t="s">
-        <v>270</v>
-      </c>
-      <c r="U9" s="158" t="s">
-        <v>264</v>
+      <c r="M9" s="230" t="s">
+        <v>402</v>
+      </c>
+      <c r="N9" s="181" t="s">
+        <v>401</v>
+      </c>
+      <c r="O9" s="183" t="s">
+        <v>443</v>
+      </c>
+      <c r="P9" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q9" s="225" t="s">
+        <v>368</v>
+      </c>
+      <c r="R9" s="213" t="s">
+        <v>428</v>
+      </c>
+      <c r="S9" s="238" t="s">
+        <v>427</v>
+      </c>
+      <c r="T9" s="212" t="s">
+        <v>406</v>
+      </c>
+      <c r="U9" s="225" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="151" t="s">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="B10" s="151" t="s">
-        <v>224</v>
+        <v>441</v>
       </c>
       <c r="C10" s="147"/>
       <c r="D10" s="151" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="151" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="G10" s="151" t="s">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="H10" s="151" t="s">
-        <v>224</v>
+        <v>441</v>
       </c>
       <c r="I10" s="147"/>
       <c r="J10" s="151" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="151" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="L10" s="152"/>
-      <c r="M10" s="202" t="s">
-        <v>262</v>
-      </c>
-      <c r="N10" s="197" t="s">
-        <v>338</v>
-      </c>
-      <c r="O10" s="203" t="s">
-        <v>344</v>
-      </c>
-      <c r="P10" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q10" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="158"/>
+      <c r="M10" s="230" t="s">
+        <v>440</v>
+      </c>
+      <c r="N10" s="181" t="s">
+        <v>439</v>
+      </c>
+      <c r="O10" s="183" t="s">
+        <v>439</v>
+      </c>
+      <c r="P10" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q10" s="225" t="s">
+        <v>368</v>
+      </c>
+      <c r="R10" s="231" t="s">
+        <v>438</v>
+      </c>
+      <c r="S10" s="231" t="s">
+        <v>437</v>
+      </c>
+      <c r="T10" s="231" t="s">
+        <v>436</v>
+      </c>
+      <c r="U10" s="225" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="151" t="s">
-        <v>286</v>
+        <v>434</v>
       </c>
       <c r="B11" s="151" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="147"/>
       <c r="D11" s="151" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
       <c r="E11" s="151" t="s">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="G11" s="151" t="s">
-        <v>286</v>
+        <v>434</v>
       </c>
       <c r="H11" s="151" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="147"/>
       <c r="J11" s="151" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
       <c r="K11" s="151" t="s">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="L11" s="152"/>
-      <c r="M11" s="202" t="s">
-        <v>262</v>
-      </c>
-      <c r="N11" s="197" t="s">
-        <v>263</v>
-      </c>
-      <c r="O11" s="203" t="s">
-        <v>345</v>
-      </c>
-      <c r="P11" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q11" s="158" t="s">
-        <v>290</v>
-      </c>
-      <c r="R11" s="156"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="158"/>
+      <c r="M11" s="229" t="s">
+        <v>431</v>
+      </c>
+      <c r="N11" s="181" t="s">
+        <v>430</v>
+      </c>
+      <c r="O11" s="183" t="s">
+        <v>429</v>
+      </c>
+      <c r="P11" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q11" s="225" t="s">
+        <v>368</v>
+      </c>
+      <c r="R11" s="227" t="s">
+        <v>428</v>
+      </c>
+      <c r="S11" s="239" t="s">
+        <v>427</v>
+      </c>
+      <c r="T11" s="227" t="s">
+        <v>406</v>
+      </c>
+      <c r="U11" s="228" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="151" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="B12" s="151"/>
       <c r="C12" s="147"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151" t="s">
-        <v>8</v>
-      </c>
+      <c r="D12" s="174" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="151"/>
       <c r="G12" s="151" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="H12" s="151"/>
       <c r="I12" s="147"/>
       <c r="J12" s="151"/>
-      <c r="K12" s="151" t="s">
-        <v>8</v>
-      </c>
+      <c r="K12" s="151"/>
       <c r="L12" s="152"/>
-      <c r="M12" s="202" t="s">
-        <v>289</v>
-      </c>
-      <c r="N12" s="197" t="s">
-        <v>339</v>
-      </c>
-      <c r="O12" s="203" t="s">
-        <v>346</v>
-      </c>
-      <c r="P12" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q12" s="158" t="s">
-        <v>290</v>
-      </c>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="158"/>
+      <c r="M12" s="229" t="s">
+        <v>424</v>
+      </c>
+      <c r="N12" s="179" t="s">
+        <v>423</v>
+      </c>
+      <c r="O12" s="212" t="s">
+        <v>423</v>
+      </c>
+      <c r="P12" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q12" s="225" t="s">
+        <v>368</v>
+      </c>
+      <c r="R12" s="213"/>
+      <c r="S12" s="213"/>
+      <c r="T12" s="213"/>
+      <c r="U12" s="225"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A13" s="151"/>
-      <c r="B13" s="151"/>
+      <c r="A13" s="260"/>
+      <c r="B13" s="260"/>
       <c r="C13" s="147"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
       <c r="I13" s="147"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151" t="s">
-        <v>291</v>
-      </c>
+      <c r="J13" s="260"/>
+      <c r="K13" s="260"/>
       <c r="L13" s="152"/>
-      <c r="M13" s="231" t="s">
-        <v>287</v>
-      </c>
-      <c r="N13" s="232" t="s">
-        <v>340</v>
-      </c>
-      <c r="O13" s="233" t="s">
-        <v>347</v>
-      </c>
-      <c r="P13" s="234" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q13" s="235" t="s">
-        <v>288</v>
-      </c>
-      <c r="R13" s="169"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="191"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="164" t="s">
-        <v>214</v>
+      <c r="M13" s="230" t="s">
+        <v>422</v>
+      </c>
+      <c r="N13" s="180" t="s">
+        <v>421</v>
+      </c>
+      <c r="O13" s="213" t="s">
+        <v>420</v>
+      </c>
+      <c r="P13" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="225" t="s">
+        <v>376</v>
+      </c>
+      <c r="R13" s="232"/>
+      <c r="S13" s="232"/>
+      <c r="T13" s="232"/>
+      <c r="U13" s="233"/>
+    </row>
+    <row r="14" spans="1:21" ht="17.25" thickTop="1">
+      <c r="A14" s="149" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="149" t="s">
+        <v>417</v>
       </c>
       <c r="C14" s="147"/>
-      <c r="D14" s="170" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="188" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="164" t="s">
-        <v>214</v>
+      <c r="D14" s="261" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="258" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>418</v>
+      </c>
+      <c r="H14" s="149" t="s">
+        <v>417</v>
       </c>
       <c r="I14" s="147"/>
-      <c r="J14" s="170" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="164"/>
+      <c r="J14" s="261" t="s">
+        <v>416</v>
+      </c>
+      <c r="K14" s="149"/>
       <c r="L14" s="150"/>
-      <c r="M14" s="201" t="s">
-        <v>330</v>
-      </c>
-      <c r="N14" s="197" t="s">
-        <v>341</v>
-      </c>
-      <c r="O14" s="203" t="s">
-        <v>348</v>
-      </c>
-      <c r="P14" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q14" s="158" t="s">
-        <v>290</v>
-      </c>
-      <c r="R14" s="172"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="172"/>
+      <c r="M14" s="221" t="s">
+        <v>415</v>
+      </c>
+      <c r="N14" s="177" t="s">
+        <v>414</v>
+      </c>
+      <c r="O14" s="209" t="s">
+        <v>413</v>
+      </c>
+      <c r="P14" s="209" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q14" s="222" t="s">
+        <v>386</v>
+      </c>
+      <c r="R14" s="231"/>
+      <c r="S14" s="231"/>
+      <c r="T14" s="231"/>
+      <c r="U14" s="231"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="151" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="B15" s="151" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="C15" s="147"/>
-      <c r="D15" s="171" t="s">
-        <v>293</v>
+      <c r="D15" s="159" t="s">
+        <v>410</v>
       </c>
       <c r="E15" s="151" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="151" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="H15" s="151" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="I15" s="147"/>
-      <c r="J15" s="171" t="s">
-        <v>293</v>
+      <c r="J15" s="159" t="s">
+        <v>410</v>
       </c>
       <c r="K15" s="151" t="s">
         <v>7</v>
       </c>
       <c r="L15" s="152"/>
-      <c r="M15" s="202" t="s">
-        <v>267</v>
-      </c>
-      <c r="N15" s="197" t="s">
-        <v>342</v>
-      </c>
-      <c r="O15" s="203" t="s">
-        <v>349</v>
-      </c>
-      <c r="P15" s="156" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q15" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="R15" s="172"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-    </row>
-    <row r="16" spans="1:21" ht="17.25" thickBot="1">
+      <c r="M15" s="223" t="s">
+        <v>409</v>
+      </c>
+      <c r="N15" s="178" t="s">
+        <v>408</v>
+      </c>
+      <c r="O15" s="210" t="s">
+        <v>407</v>
+      </c>
+      <c r="P15" s="210" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q15" s="224" t="s">
+        <v>386</v>
+      </c>
+      <c r="R15" s="231"/>
+      <c r="S15" s="231"/>
+      <c r="T15" s="231"/>
+      <c r="U15" s="231"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="151" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="C16" s="147"/>
-      <c r="D16" s="171" t="s">
-        <v>295</v>
+      <c r="D16" s="159" t="s">
+        <v>403</v>
       </c>
       <c r="E16" s="151" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="151" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="H16" s="151" t="s">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="I16" s="147"/>
-      <c r="J16" s="171" t="s">
-        <v>295</v>
+      <c r="J16" s="159" t="s">
+        <v>403</v>
       </c>
       <c r="K16" s="151" t="s">
         <v>5</v>
       </c>
       <c r="L16" s="152"/>
-      <c r="M16" s="204" t="s">
-        <v>329</v>
-      </c>
-      <c r="N16" s="198" t="s">
-        <v>343</v>
-      </c>
-      <c r="O16" s="205" t="s">
-        <v>327</v>
-      </c>
-      <c r="P16" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q16" s="191" t="s">
-        <v>290</v>
-      </c>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="M16" s="230" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="181" t="s">
+        <v>401</v>
+      </c>
+      <c r="O16" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="P16" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q16" s="225" t="s">
+        <v>386</v>
+      </c>
+      <c r="R16" s="231"/>
+      <c r="S16" s="231"/>
+      <c r="T16" s="231"/>
+      <c r="U16" s="231"/>
+    </row>
+    <row r="17" spans="1:21" ht="17.25" thickBot="1">
       <c r="A17" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="151" t="s">
-        <v>302</v>
+      <c r="B17" s="174" t="s">
+        <v>400</v>
       </c>
       <c r="C17" s="147"/>
-      <c r="D17" s="171" t="s">
-        <v>298</v>
+      <c r="D17" s="159" t="s">
+        <v>398</v>
       </c>
       <c r="E17" s="151" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="G17" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="187" t="s">
-        <v>297</v>
+      <c r="H17" s="173" t="s">
+        <v>399</v>
       </c>
       <c r="I17" s="147"/>
-      <c r="J17" s="171" t="s">
-        <v>298</v>
+      <c r="J17" s="159" t="s">
+        <v>398</v>
       </c>
       <c r="K17" s="151" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="L17" s="152"/>
+      <c r="M17" s="241" t="s">
+        <v>396</v>
+      </c>
+      <c r="N17" s="242" t="s">
+        <v>395</v>
+      </c>
+      <c r="O17" s="243" t="s">
+        <v>395</v>
+      </c>
+      <c r="P17" s="232" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q17" s="233" t="s">
+        <v>386</v>
+      </c>
+      <c r="R17" s="211"/>
+      <c r="S17" s="211"/>
+      <c r="T17" s="211"/>
+      <c r="U17" s="211"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="151" t="s">
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="B18" s="151"/>
       <c r="C18" s="147"/>
-      <c r="D18" s="171" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18" s="189" t="s">
-        <v>325</v>
+      <c r="D18" s="159" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="174" t="s">
+        <v>393</v>
       </c>
       <c r="G18" s="151" t="s">
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="H18" s="151"/>
       <c r="I18" s="147"/>
-      <c r="J18" s="171" t="s">
-        <v>303</v>
+      <c r="J18" s="159" t="s">
+        <v>391</v>
       </c>
       <c r="K18" s="151"/>
       <c r="L18" s="152"/>
-      <c r="R18" s="222" t="s">
-        <v>331</v>
-      </c>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222" t="s">
-        <v>326</v>
-      </c>
-      <c r="U18" s="222"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="151"/>
-      <c r="B19" s="151"/>
+      <c r="R18" s="208" t="s">
+        <v>390</v>
+      </c>
+      <c r="S18" s="208"/>
+      <c r="T18" s="208" t="s">
+        <v>389</v>
+      </c>
+      <c r="U18" s="208"/>
+    </row>
+    <row r="19" spans="1:21" ht="17.25" thickBot="1">
+      <c r="A19" s="260" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="260"/>
       <c r="C19" s="147"/>
-      <c r="D19" s="151" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
+      <c r="D19" s="260" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="260"/>
+      <c r="G19" s="260" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" s="260"/>
       <c r="I19" s="147"/>
-      <c r="J19" s="151" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="151"/>
+      <c r="J19" s="260" t="s">
+        <v>387</v>
+      </c>
+      <c r="K19" s="260"/>
       <c r="L19" s="152"/>
-      <c r="R19" s="168" t="s">
-        <v>288</v>
-      </c>
-      <c r="S19" s="172">
+      <c r="R19" s="157" t="s">
+        <v>372</v>
+      </c>
+      <c r="S19" s="184">
         <v>1</v>
       </c>
-      <c r="T19" s="172" t="s">
-        <v>265</v>
-      </c>
-      <c r="U19" s="172">
+      <c r="T19" s="184" t="s">
+        <v>386</v>
+      </c>
+      <c r="U19" s="184">
+        <f t="array" ref="U19">SUM(IF($Q$5:$Q$17=T19,1,0))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="B20" s="188" t="s">
-        <v>307</v>
+    <row r="20" spans="1:21" ht="17.25" thickTop="1">
+      <c r="A20" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="258" t="s">
+        <v>385</v>
       </c>
       <c r="C20" s="147"/>
-      <c r="D20" s="190" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="188" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="164"/>
+      <c r="D20" s="259" t="s">
+        <v>384</v>
+      </c>
+      <c r="E20" s="258" t="s">
+        <v>383</v>
+      </c>
+      <c r="G20" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="H20" s="149"/>
       <c r="I20" s="147"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="164"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="149"/>
       <c r="L20" s="150"/>
-      <c r="R20" s="172"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="172" t="s">
-        <v>281</v>
-      </c>
-      <c r="U20" s="172">
-        <v>1</v>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184" t="s">
+        <v>381</v>
+      </c>
+      <c r="U20" s="184">
+        <f t="array" ref="U20">SUM(IF($Q$5:$Q$17=T20,1,0))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="151" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
       <c r="B21" s="151" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="C21" s="147"/>
       <c r="D21" s="151" t="s">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="E21" s="151" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="G21" s="151" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
       <c r="H21" s="151" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="I21" s="147"/>
       <c r="J21" s="151" t="s">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="K21" s="151" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="L21" s="152"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="U21" s="172">
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184" t="s">
+        <v>376</v>
+      </c>
+      <c r="U21" s="184">
+        <f t="array" ref="U21">SUM(IF($Q$5:$Q$17=T21,1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -65452,125 +65857,110 @@
         <v>21</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="C22" s="147"/>
       <c r="D22" s="151" t="s">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="E22" s="151" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="G22" s="151" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="151" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="I22" s="147"/>
       <c r="J22" s="151" t="s">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="K22" s="151" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="L22" s="152"/>
-      <c r="M22" s="222" t="s">
-        <v>296</v>
-      </c>
-      <c r="N22" s="222"/>
-      <c r="O22" s="222"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172" t="s">
-        <v>288</v>
-      </c>
-      <c r="U22" s="172">
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="U22" s="184">
+        <f t="array" ref="U22">SUM(IF($Q$5:$Q$17=T22,1,0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="151" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="B23" s="151" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="C23" s="147"/>
       <c r="D23" s="151" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="E23" s="151" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="151" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="H23" s="151" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="I23" s="147"/>
       <c r="J23" s="151" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="K23" s="151" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="152"/>
-      <c r="M23" s="172" t="s">
-        <v>300</v>
-      </c>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172" t="s">
-        <v>301</v>
-      </c>
-      <c r="R23" s="172"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172" t="s">
-        <v>290</v>
-      </c>
-      <c r="U23" s="172">
+      <c r="R23" s="184"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184" t="s">
+        <v>368</v>
+      </c>
+      <c r="U23" s="184">
+        <f t="array" ref="U23">SUM(IF($Q$5:$Q$17=T23,1,0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="151"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="174" t="s">
+        <v>367</v>
+      </c>
       <c r="C24" s="147"/>
       <c r="D24" s="151" t="s">
-        <v>198</v>
+        <v>365</v>
       </c>
       <c r="E24" s="151" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="151"/>
-      <c r="H24" s="187" t="s">
-        <v>315</v>
+      <c r="H24" s="173" t="s">
+        <v>366</v>
       </c>
       <c r="I24" s="147"/>
       <c r="J24" s="151" t="s">
-        <v>198</v>
+        <v>365</v>
       </c>
       <c r="K24" s="151" t="s">
         <v>4</v>
       </c>
       <c r="L24" s="152"/>
-      <c r="M24" s="172" t="s">
-        <v>304</v>
-      </c>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172" t="s">
-        <v>305</v>
-      </c>
-      <c r="R24" s="172"/>
-      <c r="S24" s="192">
+      <c r="R24" s="184"/>
+      <c r="S24" s="176">
         <f>SUM(S19:S23)</f>
         <v>1</v>
       </c>
-      <c r="T24" s="172"/>
-      <c r="U24" s="192">
+      <c r="T24" s="184"/>
+      <c r="U24" s="176">
         <f>SUM(U19:U23)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -65585,201 +65975,220 @@
       <c r="J25" s="151"/>
       <c r="K25" s="151"/>
       <c r="L25" s="152"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
     </row>
     <row r="26" spans="1:21">
       <c r="C26" s="147"/>
-      <c r="D26" s="175"/>
+      <c r="D26" s="161"/>
       <c r="E26" s="147"/>
       <c r="I26" s="147"/>
       <c r="J26" s="147"/>
       <c r="K26" s="147"/>
       <c r="L26" s="147"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="176" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27" s="176" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="172" t="s">
-        <v>318</v>
-      </c>
-      <c r="D27" s="176" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="176" t="s">
-        <v>320</v>
-      </c>
-      <c r="F27" s="172"/>
-      <c r="G27" s="176" t="s">
-        <v>316</v>
-      </c>
-      <c r="H27" s="176" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" s="172" t="s">
-        <v>318</v>
-      </c>
-      <c r="J27" s="176" t="s">
-        <v>319</v>
-      </c>
-      <c r="K27" s="176" t="s">
-        <v>320</v>
+      <c r="A27" s="162" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="162" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="162" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="184"/>
+      <c r="G27" s="162" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="I27" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" s="162" t="s">
+        <v>362</v>
+      </c>
+      <c r="K27" s="162" t="s">
+        <v>361</v>
       </c>
       <c r="L27" s="147"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="174"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="177">
+      <c r="A28" s="163">
         <f>COUNTA(A2:A26)</f>
-        <v>20</v>
-      </c>
-      <c r="B28" s="177">
+        <v>21</v>
+      </c>
+      <c r="B28" s="163">
         <f>COUNTA(B2:B26)</f>
-        <v>16</v>
-      </c>
-      <c r="C28" s="178">
+        <v>17</v>
+      </c>
+      <c r="C28" s="164">
         <v>2</v>
       </c>
-      <c r="D28" s="177">
+      <c r="D28" s="163">
         <f>COUNTA(D2:D25)</f>
         <v>21</v>
       </c>
-      <c r="E28" s="177">
+      <c r="E28" s="163">
         <f>COUNTA(E2:E26)</f>
+        <v>19</v>
+      </c>
+      <c r="F28" s="162"/>
+      <c r="G28" s="163">
+        <f>COUNTA(G2:G25)</f>
         <v>21</v>
       </c>
-      <c r="F28" s="176"/>
-      <c r="G28" s="177">
-        <f>COUNTA(G2:G25)</f>
-        <v>20</v>
-      </c>
-      <c r="H28" s="177">
+      <c r="H28" s="163">
         <f>COUNTA(H2:H26)</f>
         <v>16</v>
       </c>
-      <c r="I28" s="178">
+      <c r="I28" s="164">
         <v>3</v>
       </c>
-      <c r="J28" s="177">
+      <c r="J28" s="163">
         <f>COUNTA(J2:J25)</f>
         <v>18</v>
       </c>
-      <c r="K28" s="177">
+      <c r="K28" s="163">
         <f>COUNTA(K2:K25)</f>
-        <v>16</v>
-      </c>
-      <c r="L28" s="179"/>
+        <v>15</v>
+      </c>
+      <c r="L28" s="165"/>
+      <c r="M28" s="208" t="s">
+        <v>360</v>
+      </c>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="226">
+      <c r="A29" s="201">
         <f>A28+B28</f>
-        <v>36</v>
-      </c>
-      <c r="B29" s="226"/>
+        <v>38</v>
+      </c>
+      <c r="B29" s="201"/>
       <c r="C29" s="147"/>
-      <c r="D29" s="227">
+      <c r="D29" s="202">
         <f>D28+E28</f>
-        <v>42</v>
-      </c>
-      <c r="E29" s="227"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="226">
+        <v>40</v>
+      </c>
+      <c r="E29" s="202"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="201">
         <f>G28+H28</f>
-        <v>36</v>
-      </c>
-      <c r="H29" s="226"/>
+        <v>37</v>
+      </c>
+      <c r="H29" s="201"/>
       <c r="I29" s="147"/>
-      <c r="J29" s="227">
+      <c r="J29" s="202">
         <f>J28+K28</f>
-        <v>34</v>
-      </c>
-      <c r="K29" s="227"/>
-      <c r="L29" s="179"/>
+        <v>33</v>
+      </c>
+      <c r="K29" s="202"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="184" t="s">
+        <v>359</v>
+      </c>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="228" t="s">
-        <v>321</v>
-      </c>
-      <c r="B30" s="229"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="229"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="228" t="s">
-        <v>322</v>
-      </c>
-      <c r="H30" s="229"/>
-      <c r="I30" s="229"/>
-      <c r="J30" s="229"/>
-      <c r="K30" s="230"/>
+      <c r="A30" s="203" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="203" t="s">
+        <v>357</v>
+      </c>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="205"/>
       <c r="L30" s="147"/>
+      <c r="M30" s="184" t="s">
+        <v>356</v>
+      </c>
+      <c r="N30" s="184"/>
+      <c r="O30" s="184" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="180" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" s="181">
+      <c r="A31" s="166" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="167">
         <f>A28+B28</f>
-        <v>36</v>
-      </c>
-      <c r="C31" s="182">
+        <v>38</v>
+      </c>
+      <c r="C31" s="168">
         <f>C28</f>
         <v>2</v>
       </c>
-      <c r="D31" s="183" t="s">
-        <v>305</v>
-      </c>
-      <c r="E31" s="184">
+      <c r="D31" s="169" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" s="170">
         <f>D28+E28</f>
-        <v>42</v>
-      </c>
-      <c r="F31" s="163"/>
-      <c r="G31" s="180" t="s">
-        <v>301</v>
-      </c>
-      <c r="H31" s="181">
+        <v>40</v>
+      </c>
+      <c r="F31" s="156"/>
+      <c r="G31" s="166" t="s">
+        <v>355</v>
+      </c>
+      <c r="H31" s="167">
         <f>G28+H28</f>
-        <v>36</v>
-      </c>
-      <c r="I31" s="182">
+        <v>37</v>
+      </c>
+      <c r="I31" s="168">
         <f>I28</f>
         <v>3</v>
       </c>
-      <c r="J31" s="183" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" s="184">
+      <c r="J31" s="169" t="s">
+        <v>354</v>
+      </c>
+      <c r="K31" s="170">
         <f>J28+K28</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31" s="147"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="223">
+      <c r="A32" s="198">
         <f>B31+E31+C31</f>
         <v>80</v>
       </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="223">
+      <c r="B32" s="199"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="198">
         <f>H31+K31+I31</f>
         <v>73</v>
       </c>
-      <c r="H32" s="224"/>
-      <c r="I32" s="224"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="225"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="200"/>
       <c r="L32" s="147"/>
     </row>
     <row r="33" spans="1:12">
@@ -65788,39 +66197,61 @@
       <c r="C33" s="147"/>
       <c r="D33" s="147"/>
       <c r="E33" s="147"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
+      <c r="A34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="244">
+        <f>A28+D28</f>
+        <v>42</v>
+      </c>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" t="s">
+        <v>353</v>
+      </c>
+      <c r="H34" s="244">
+        <f>G28+J28</f>
+        <v>39</v>
+      </c>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="B35" s="185"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="185"/>
+      <c r="A35" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="245">
+        <f>B28+E28</f>
+        <v>36</v>
+      </c>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" t="s">
+        <v>352</v>
+      </c>
+      <c r="H35" s="245">
+        <f>H28+K28</f>
+        <v>31</v>
+      </c>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="171"/>
     </row>
     <row r="36" spans="1:12">
       <c r="G36" s="147"/>
@@ -65830,7 +66261,7 @@
       <c r="K36" s="147"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="C37" s="179"/>
+      <c r="C37" s="165"/>
       <c r="G37" s="147"/>
       <c r="H37" s="147"/>
       <c r="I37" s="147"/>
@@ -65854,6 +66285,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R18:S18"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G32:K32"/>
     <mergeCell ref="G29:H29"/>
@@ -65862,13 +66300,6 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G30:K30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -65878,13 +66309,152 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:10" ht="27" thickBot="1">
+      <c r="B3" s="246" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="248"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="253">
+        <v>20</v>
+      </c>
+      <c r="C4" s="254">
+        <v>20</v>
+      </c>
+      <c r="D4" s="254">
+        <v>20</v>
+      </c>
+      <c r="E4" s="256">
+        <v>30</v>
+      </c>
+      <c r="F4" s="254">
+        <v>20</v>
+      </c>
+      <c r="G4" s="254">
+        <v>20</v>
+      </c>
+      <c r="H4" s="254">
+        <v>20</v>
+      </c>
+      <c r="I4" s="254">
+        <v>20</v>
+      </c>
+      <c r="J4" s="255">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B5" s="250">
+        <v>406</v>
+      </c>
+      <c r="C5" s="249">
+        <v>407</v>
+      </c>
+      <c r="D5" s="249">
+        <v>408</v>
+      </c>
+      <c r="E5" s="249">
+        <v>409</v>
+      </c>
+      <c r="F5" s="249">
+        <v>410</v>
+      </c>
+      <c r="G5" s="249">
+        <v>411</v>
+      </c>
+      <c r="H5" s="249">
+        <v>412</v>
+      </c>
+      <c r="I5" s="249">
+        <v>413</v>
+      </c>
+      <c r="J5" s="251">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="25.5" customHeight="1" thickTop="1">
+      <c r="B6" s="182" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="153" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="153" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="153" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="H6" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="153" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="154" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B7" s="252" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="158" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" s="158" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="158" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" s="175" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:J3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>